--- a/biology/Zoologie/Arvicola_scherman/Arvicola_scherman.xlsx
+++ b/biology/Zoologie/Arvicola_scherman/Arvicola_scherman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arvicola scherman, le Campagnol fouisseur,  est une espèce de rongeurs de la famille des Cricétidés. On rencontre ce campagnol dans les régions montagneuses d'Europe du sud ou centrale. Dans les Alpes françaises, il est possible de croiser ce petit animal terrestre jusqu'à 2 400 m d'altitude.
 Cette espèce a été décrite pour la première fois en 1801 par le zoologiste britannique George Kearsley Shaw (1751-1813).
